--- a/CCRB-Complaint_Data_202007261025/CCRB Data Layout Table.xlsx
+++ b/CCRB-Complaint_Data_202007261025/CCRB Data Layout Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celrae/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanayala/NYPD-CIV-COMPLAINTS/CCRB-Complaint_Data_202007261025/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000339C9-BCDE-F643-B2CD-2E62F81C3D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,18 @@
     <sheet name="FADO" sheetId="4" r:id="rId4"/>
     <sheet name="Dispositions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3483,7 +3492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3550,6 +3559,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3752,15 +3764,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4041,8 +4053,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z35"/>
@@ -4364,18 +4376,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z461"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="46.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -4622,7 +4637,7 @@
         <v>178</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4630,7 +4645,7 @@
         <v>180</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4822,7 +4837,7 @@
         <v>228</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4830,7 +4845,7 @@
         <v>230</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4886,7 +4901,7 @@
         <v>244</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4894,7 +4909,7 @@
         <v>246</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4942,7 +4957,7 @@
         <v>258</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4950,7 +4965,7 @@
         <v>260</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4958,7 +4973,7 @@
         <v>262</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -4998,7 +5013,7 @@
         <v>272</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -5006,7 +5021,7 @@
         <v>274</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -5150,7 +5165,7 @@
         <v>310</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -5158,7 +5173,7 @@
         <v>312</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -5222,7 +5237,7 @@
         <v>328</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -5230,7 +5245,7 @@
         <v>330</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -5238,7 +5253,7 @@
         <v>332</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -8095,8 +8110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z119"/>
@@ -9449,15 +9464,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
